--- a/Code/Results/Cases/Case_0_113/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_113/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9680697257731968</v>
+        <v>1.010371260139372</v>
       </c>
       <c r="D2">
-        <v>0.9785179381989859</v>
+        <v>1.012902601556871</v>
       </c>
       <c r="E2">
-        <v>0.9788236548193568</v>
+        <v>1.012676467692917</v>
       </c>
       <c r="F2">
-        <v>0.9821609049261691</v>
+        <v>1.022948532896612</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044017498822297</v>
+        <v>1.025565289030852</v>
       </c>
       <c r="J2">
-        <v>0.9912492925500416</v>
+        <v>1.015625892347066</v>
       </c>
       <c r="K2">
-        <v>0.9902848931464143</v>
+        <v>1.015765362915779</v>
       </c>
       <c r="L2">
-        <v>0.9905861117009441</v>
+        <v>1.015539909156081</v>
       </c>
       <c r="M2">
-        <v>0.9938744912684733</v>
+        <v>1.025781411076117</v>
       </c>
       <c r="N2">
-        <v>1.000897409844736</v>
+        <v>1.009309119679293</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9729545596179029</v>
+        <v>1.011406944684967</v>
       </c>
       <c r="D3">
-        <v>0.982491019222813</v>
+        <v>1.013798066038265</v>
       </c>
       <c r="E3">
-        <v>0.982723816900294</v>
+        <v>1.013557327623777</v>
       </c>
       <c r="F3">
-        <v>0.9877899037498162</v>
+        <v>1.02415355767728</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044390645603743</v>
+        <v>1.02553972418465</v>
       </c>
       <c r="J3">
-        <v>0.9942106838370707</v>
+        <v>1.016293901614334</v>
       </c>
       <c r="K3">
-        <v>0.9933529436287563</v>
+        <v>1.01646518686554</v>
       </c>
       <c r="L3">
-        <v>0.9935826287361307</v>
+        <v>1.016225119791121</v>
       </c>
       <c r="M3">
-        <v>0.9985814363363251</v>
+        <v>1.02679212406856</v>
       </c>
       <c r="N3">
-        <v>1.001925915736186</v>
+        <v>1.009535773716937</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9760482057768498</v>
+        <v>1.012077623653653</v>
       </c>
       <c r="D4">
-        <v>0.9850136427438052</v>
+        <v>1.014378277196461</v>
       </c>
       <c r="E4">
-        <v>0.985200736293276</v>
+        <v>1.01412811510856</v>
       </c>
       <c r="F4">
-        <v>0.9913450891706236</v>
+        <v>1.0249323242737</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044607905411961</v>
+        <v>1.02552073760344</v>
       </c>
       <c r="J4">
-        <v>0.9960850998162034</v>
+        <v>1.016726148005834</v>
       </c>
       <c r="K4">
-        <v>0.9952963696002484</v>
+        <v>1.016918179526824</v>
       </c>
       <c r="L4">
-        <v>0.9954811191955173</v>
+        <v>1.016668679712447</v>
       </c>
       <c r="M4">
-        <v>1.001549106060504</v>
+        <v>1.027444604017036</v>
       </c>
       <c r="N4">
-        <v>1.002576080584327</v>
+        <v>1.009682273690448</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9773333465743064</v>
+        <v>1.012359702064887</v>
       </c>
       <c r="D5">
-        <v>0.9860630552244636</v>
+        <v>1.014622385505205</v>
       </c>
       <c r="E5">
-        <v>0.9862312732080659</v>
+        <v>1.014368267983479</v>
       </c>
       <c r="F5">
-        <v>0.9928195997181247</v>
+        <v>1.025259486731346</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044693503031872</v>
+        <v>1.025512169486292</v>
       </c>
       <c r="J5">
-        <v>0.9968634602460172</v>
+        <v>1.016907864006635</v>
       </c>
       <c r="K5">
-        <v>0.9961037433337406</v>
+        <v>1.017108655500331</v>
       </c>
       <c r="L5">
-        <v>0.9962699123512794</v>
+        <v>1.016855195648634</v>
       </c>
       <c r="M5">
-        <v>1.002778667817599</v>
+        <v>1.027718542588932</v>
       </c>
       <c r="N5">
-        <v>1.002845857459154</v>
+        <v>1.009743823679129</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9775482409423734</v>
+        <v>1.012407071601336</v>
       </c>
       <c r="D6">
-        <v>0.9862386179252172</v>
+        <v>1.014663383344966</v>
       </c>
       <c r="E6">
-        <v>0.9864036860267191</v>
+        <v>1.014408602055124</v>
       </c>
       <c r="F6">
-        <v>0.993066020159054</v>
+        <v>1.025314405200366</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044707540206783</v>
+        <v>1.025510696460925</v>
       </c>
       <c r="J6">
-        <v>0.9969935950496579</v>
+        <v>1.016938374891133</v>
       </c>
       <c r="K6">
-        <v>0.9962387497701268</v>
+        <v>1.017140639463113</v>
       </c>
       <c r="L6">
-        <v>0.9964018168542615</v>
+        <v>1.016886515024525</v>
       </c>
       <c r="M6">
-        <v>1.002984076174991</v>
+        <v>1.027764516724678</v>
       </c>
       <c r="N6">
-        <v>1.002890949280904</v>
+        <v>1.009754155923315</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9760654376762805</v>
+        <v>1.012081392308069</v>
       </c>
       <c r="D7">
-        <v>0.9850277080797682</v>
+        <v>1.014381538247465</v>
       </c>
       <c r="E7">
-        <v>0.9852145481031747</v>
+        <v>1.01413132328226</v>
       </c>
       <c r="F7">
-        <v>0.9913648695975246</v>
+        <v>1.024936696742331</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044609071651643</v>
+        <v>1.02552062542028</v>
       </c>
       <c r="J7">
-        <v>0.9960955377341563</v>
+        <v>1.016728576105841</v>
       </c>
       <c r="K7">
-        <v>0.9953071951856729</v>
+        <v>1.016920724527846</v>
       </c>
       <c r="L7">
-        <v>0.9954916953039421</v>
+        <v>1.016671171777739</v>
       </c>
       <c r="M7">
-        <v>1.00156560562083</v>
+        <v>1.02744826582848</v>
       </c>
       <c r="N7">
-        <v>1.002579699158381</v>
+        <v>1.009683096276352</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9697348903044911</v>
+        <v>1.01072116656477</v>
       </c>
       <c r="D8">
-        <v>0.9798709218086734</v>
+        <v>1.013205064928666</v>
       </c>
       <c r="E8">
-        <v>0.9801516790634869</v>
+        <v>1.012973989880497</v>
       </c>
       <c r="F8">
-        <v>0.9840817788243321</v>
+        <v>1.023355976484694</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04414864775224</v>
+        <v>1.025557154830652</v>
       </c>
       <c r="J8">
-        <v>0.9922589894167402</v>
+        <v>1.015851649072877</v>
       </c>
       <c r="K8">
-        <v>0.9913306388679842</v>
+        <v>1.016001838380274</v>
       </c>
       <c r="L8">
-        <v>0.991607394321349</v>
+        <v>1.015771441190121</v>
       </c>
       <c r="M8">
-        <v>0.9954817789525369</v>
+        <v>1.026123300559184</v>
       </c>
       <c r="N8">
-        <v>1.001248251468632</v>
+        <v>1.009385751544963</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9580339285833011</v>
+        <v>1.008328268902935</v>
       </c>
       <c r="D9">
-        <v>0.9703932685978226</v>
+        <v>1.01113801167686</v>
       </c>
       <c r="E9">
-        <v>0.9708516090568899</v>
+        <v>1.010940868525497</v>
       </c>
       <c r="F9">
-        <v>0.9705431754672397</v>
+        <v>1.020563152713118</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043149426904721</v>
+        <v>1.025602844781703</v>
       </c>
       <c r="J9">
-        <v>0.9851609131786279</v>
+        <v>1.014306403174602</v>
       </c>
       <c r="K9">
-        <v>0.9839856813589452</v>
+        <v>1.014383884164755</v>
       </c>
       <c r="L9">
-        <v>0.9844359909662225</v>
+        <v>1.014187419502133</v>
       </c>
       <c r="M9">
-        <v>0.9841329605406435</v>
+        <v>1.023776923686797</v>
       </c>
       <c r="N9">
-        <v>0.9987786889024647</v>
+        <v>1.008860573384166</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9498192449644656</v>
+        <v>1.006735682695536</v>
       </c>
       <c r="D10">
-        <v>0.9637800359175391</v>
+        <v>1.00976407107002</v>
       </c>
       <c r="E10">
-        <v>0.9643660462369406</v>
+        <v>1.009589690254689</v>
       </c>
       <c r="F10">
-        <v>0.9609869816192187</v>
+        <v>1.018696291817971</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042352895615167</v>
+        <v>1.025620801168555</v>
       </c>
       <c r="J10">
-        <v>0.9801756716016672</v>
+        <v>1.013276263651415</v>
       </c>
       <c r="K10">
-        <v>0.978835566854789</v>
+        <v>1.013306103196133</v>
       </c>
       <c r="L10">
-        <v>0.9794099344806639</v>
+        <v>1.013132381908735</v>
       </c>
       <c r="M10">
-        <v>0.9760982609183556</v>
+        <v>1.022204875520217</v>
       </c>
       <c r="N10">
-        <v>0.9970405746029314</v>
+        <v>1.008509647128149</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.946152387045913</v>
+        <v>1.006046708396777</v>
       </c>
       <c r="D11">
-        <v>0.9608386470377783</v>
+        <v>1.00917011698815</v>
       </c>
       <c r="E11">
-        <v>0.9614824283198653</v>
+        <v>1.009005626708028</v>
       </c>
       <c r="F11">
-        <v>0.9567092161369094</v>
+        <v>1.017886736216683</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041976036430593</v>
+        <v>1.025625622239129</v>
       </c>
       <c r="J11">
-        <v>0.9779505095835272</v>
+        <v>1.012830210575164</v>
       </c>
       <c r="K11">
-        <v>0.9765389089685818</v>
+        <v>1.012839618851596</v>
       </c>
       <c r="L11">
-        <v>0.977169217046286</v>
+        <v>1.012675775016912</v>
       </c>
       <c r="M11">
-        <v>0.9724964706832805</v>
+        <v>1.021522313630841</v>
       </c>
       <c r="N11">
-        <v>0.9962640330546129</v>
+        <v>1.008357502984775</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9447727658283169</v>
+        <v>1.005790886424283</v>
       </c>
       <c r="D12">
-        <v>0.9597336616197306</v>
+        <v>1.008949642345352</v>
       </c>
       <c r="E12">
-        <v>0.9603993026287743</v>
+        <v>1.008788831066341</v>
       </c>
       <c r="F12">
-        <v>0.9550979344171635</v>
+        <v>1.017585851580468</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041831155291804</v>
+        <v>1.025626970047317</v>
       </c>
       <c r="J12">
-        <v>0.9771133905392081</v>
+        <v>1.012664527388108</v>
       </c>
       <c r="K12">
-        <v>0.975675214473509</v>
+        <v>1.012666376378642</v>
       </c>
       <c r="L12">
-        <v>0.9763266578217242</v>
+        <v>1.012506205930539</v>
       </c>
       <c r="M12">
-        <v>0.9711390925233674</v>
+        <v>1.021268501066274</v>
       </c>
       <c r="N12">
-        <v>0.9959717948238546</v>
+        <v>1.008300961378916</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9450695135043468</v>
+        <v>1.005845756867743</v>
       </c>
       <c r="D13">
-        <v>0.9599712592860089</v>
+        <v>1.008996928275204</v>
       </c>
       <c r="E13">
-        <v>0.9606321927008497</v>
+        <v>1.008835327600911</v>
       </c>
       <c r="F13">
-        <v>0.9554445926360762</v>
+        <v>1.01765040049325</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041862456141586</v>
+        <v>1.025626700968447</v>
       </c>
       <c r="J13">
-        <v>0.9772934450435828</v>
+        <v>1.01270006695595</v>
       </c>
       <c r="K13">
-        <v>0.9758609703948886</v>
+        <v>1.012703536089303</v>
       </c>
       <c r="L13">
-        <v>0.9765078636388592</v>
+        <v>1.012542577484794</v>
       </c>
       <c r="M13">
-        <v>0.9714311560584764</v>
+        <v>1.021322957335061</v>
       </c>
       <c r="N13">
-        <v>0.9960346561141252</v>
+        <v>1.008313091032246</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9460387124810899</v>
+        <v>1.006025560161781</v>
       </c>
       <c r="D14">
-        <v>0.960747566454721</v>
+        <v>1.009151889497459</v>
       </c>
       <c r="E14">
-        <v>0.9613931463227483</v>
+        <v>1.008987703217944</v>
       </c>
       <c r="F14">
-        <v>0.9565764906074624</v>
+        <v>1.017861868666231</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041964161043373</v>
+        <v>1.025625742680436</v>
       </c>
       <c r="J14">
-        <v>0.9778815328422696</v>
+        <v>1.012816515134254</v>
       </c>
       <c r="K14">
-        <v>0.9764677358904698</v>
+        <v>1.012825297949441</v>
       </c>
       <c r="L14">
-        <v>0.977099783606067</v>
+        <v>1.012661757666803</v>
       </c>
       <c r="M14">
-        <v>0.9723846739947564</v>
+        <v>1.021501339090553</v>
       </c>
       <c r="N14">
-        <v>0.9962399552140746</v>
+        <v>1.008352829818385</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9466335035745116</v>
+        <v>1.006136355320617</v>
       </c>
       <c r="D15">
-        <v>0.9612242059287175</v>
+        <v>1.009247385626276</v>
       </c>
       <c r="E15">
-        <v>0.9618603799599307</v>
+        <v>1.009081606963117</v>
       </c>
       <c r="F15">
-        <v>0.9572708901959662</v>
+        <v>1.017992137368239</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042026172564849</v>
+        <v>1.025625093578135</v>
       </c>
       <c r="J15">
-        <v>0.9782424504237643</v>
+        <v>1.012888262809247</v>
       </c>
       <c r="K15">
-        <v>0.9768401588527743</v>
+        <v>1.012900323509974</v>
       </c>
       <c r="L15">
-        <v>0.9774631076971981</v>
+        <v>1.012735193162555</v>
       </c>
       <c r="M15">
-        <v>0.9729695484364009</v>
+        <v>1.021611209046949</v>
       </c>
       <c r="N15">
-        <v>0.9963659374392316</v>
+        <v>1.008377310424818</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9500601974375853</v>
+        <v>1.006781420815183</v>
       </c>
       <c r="D16">
-        <v>0.9639735455829372</v>
+        <v>1.00980351034626</v>
       </c>
       <c r="E16">
-        <v>0.9645557765306357</v>
+        <v>1.009628473856651</v>
       </c>
       <c r="F16">
-        <v>0.961267826227609</v>
+        <v>1.018749994191611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042377225094937</v>
+        <v>1.025620419044362</v>
       </c>
       <c r="J16">
-        <v>0.9803218965911403</v>
+        <v>1.013305866826242</v>
       </c>
       <c r="K16">
-        <v>0.9789865343266769</v>
+        <v>1.013337066501099</v>
       </c>
       <c r="L16">
-        <v>0.9795572380778165</v>
+        <v>1.013162690303038</v>
       </c>
       <c r="M16">
-        <v>0.9763346246449903</v>
+        <v>1.022250135825731</v>
       </c>
       <c r="N16">
-        <v>0.9970915901782396</v>
+        <v>1.008519740428696</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9521795256387274</v>
+        <v>1.007186220755677</v>
       </c>
       <c r="D17">
-        <v>0.9656768016498588</v>
+        <v>1.010152613028368</v>
       </c>
       <c r="E17">
-        <v>0.966225880275522</v>
+        <v>1.009971778575196</v>
       </c>
       <c r="F17">
-        <v>0.9637366579187098</v>
+        <v>1.019225058152309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042588809266927</v>
+        <v>1.025616696543157</v>
       </c>
       <c r="J17">
-        <v>0.9816080598475142</v>
+        <v>1.013567820016914</v>
       </c>
       <c r="K17">
-        <v>0.9803146503901664</v>
+        <v>1.013611078076223</v>
       </c>
       <c r="L17">
-        <v>0.9808531925364041</v>
+        <v>1.013430910105915</v>
       </c>
       <c r="M17">
-        <v>0.9784118627984628</v>
+        <v>1.022650421141879</v>
       </c>
       <c r="N17">
-        <v>0.9975402299795806</v>
+        <v>1.008609032050705</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9534051732001333</v>
+        <v>1.00742239413564</v>
       </c>
       <c r="D18">
-        <v>0.9666628264286496</v>
+        <v>1.01035633240114</v>
       </c>
       <c r="E18">
-        <v>0.9671928060718941</v>
+        <v>1.010172119398475</v>
       </c>
       <c r="F18">
-        <v>0.9651632848681344</v>
+        <v>1.019502039895548</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042709146535312</v>
+        <v>1.025614240179127</v>
       </c>
       <c r="J18">
-        <v>0.9823518820393076</v>
+        <v>1.013720613269095</v>
       </c>
       <c r="K18">
-        <v>0.9810829330264308</v>
+        <v>1.013770923858688</v>
       </c>
       <c r="L18">
-        <v>0.9816029286648983</v>
+        <v>1.013587380481613</v>
       </c>
       <c r="M18">
-        <v>0.9796117181783079</v>
+        <v>1.022883721850529</v>
       </c>
       <c r="N18">
-        <v>0.9977996198584582</v>
+        <v>1.008661095926818</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9538213343149828</v>
+        <v>1.00750293341286</v>
       </c>
       <c r="D19">
-        <v>0.9669977920683166</v>
+        <v>1.01042581132021</v>
       </c>
       <c r="E19">
-        <v>0.9675212990734618</v>
+        <v>1.010240446878046</v>
       </c>
       <c r="F19">
-        <v>0.965647492883876</v>
+        <v>1.019596464015865</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042749659483178</v>
+        <v>1.025613354239018</v>
       </c>
       <c r="J19">
-        <v>0.9826044423235354</v>
+        <v>1.013772711880347</v>
       </c>
       <c r="K19">
-        <v>0.9813438320992626</v>
+        <v>1.013825430434121</v>
       </c>
       <c r="L19">
-        <v>0.9818575393006785</v>
+        <v>1.013640736610361</v>
       </c>
       <c r="M19">
-        <v>0.9800188739417803</v>
+        <v>1.022963241012383</v>
       </c>
       <c r="N19">
-        <v>0.9978876818332744</v>
+        <v>1.008678845234438</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9519532375351948</v>
+        <v>1.007142783305193</v>
       </c>
       <c r="D20">
-        <v>0.9654948346715269</v>
+        <v>1.010115147921038</v>
       </c>
       <c r="E20">
-        <v>0.9660474454010042</v>
+        <v>1.009934935192225</v>
       </c>
       <c r="F20">
-        <v>0.9634731708940857</v>
+        <v>1.01917410018625</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042566427152503</v>
+        <v>1.025617125414324</v>
       </c>
       <c r="J20">
-        <v>0.981470730294386</v>
+        <v>1.01353971487725</v>
       </c>
       <c r="K20">
-        <v>0.9801728207454772</v>
+        <v>1.013581677212053</v>
       </c>
       <c r="L20">
-        <v>0.9807147913584791</v>
+        <v>1.013402130350465</v>
       </c>
       <c r="M20">
-        <v>0.9781902189412255</v>
+        <v>1.022607492824765</v>
       </c>
       <c r="N20">
-        <v>0.9974923338709329</v>
+        <v>1.008599453808395</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.945753802182927</v>
+        <v>1.005972609987333</v>
       </c>
       <c r="D21">
-        <v>0.9605193124386948</v>
+        <v>1.009106253236438</v>
       </c>
       <c r="E21">
-        <v>0.9611694022437585</v>
+        <v>1.008942828208719</v>
       </c>
       <c r="F21">
-        <v>0.9562438024001358</v>
+        <v>1.017799601522866</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041934347548283</v>
+        <v>1.025626037093034</v>
       </c>
       <c r="J21">
-        <v>0.9777086531854099</v>
+        <v>1.012782224025121</v>
       </c>
       <c r="K21">
-        <v>0.976289356656862</v>
+        <v>1.012789441270261</v>
       </c>
       <c r="L21">
-        <v>0.9769257659780012</v>
+        <v>1.012626661104018</v>
       </c>
       <c r="M21">
-        <v>0.9721044344953674</v>
+        <v>1.021448817803202</v>
       </c>
       <c r="N21">
-        <v>0.9961796062380638</v>
+        <v>1.00834112852168</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9417536140192506</v>
+        <v>1.005237417892617</v>
       </c>
       <c r="D22">
-        <v>0.9573187243797726</v>
+        <v>1.008472768046197</v>
       </c>
       <c r="E22">
-        <v>0.9580324385781198</v>
+        <v>1.00831992832184</v>
       </c>
       <c r="F22">
-        <v>0.9515684842736822</v>
+        <v>1.016934360067156</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041508535551595</v>
+        <v>1.025629077859853</v>
       </c>
       <c r="J22">
-        <v>0.9752816532349992</v>
+        <v>1.012305964090164</v>
       </c>
       <c r="K22">
-        <v>0.9737859263167488</v>
+        <v>1.012291508153685</v>
       </c>
       <c r="L22">
-        <v>0.9744837882761491</v>
+        <v>1.012139295703456</v>
       </c>
       <c r="M22">
-        <v>0.968164561475657</v>
+        <v>1.020718700393434</v>
       </c>
       <c r="N22">
-        <v>0.9953321669798094</v>
+        <v>1.008178544367256</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9438842778225788</v>
+        <v>1.005627105825429</v>
       </c>
       <c r="D23">
-        <v>0.9590225279465115</v>
+        <v>1.008808510109015</v>
       </c>
       <c r="E23">
-        <v>0.9597022825809407</v>
+        <v>1.008650056030312</v>
       </c>
       <c r="F23">
-        <v>0.9540597443924824</v>
+        <v>1.017393139639279</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041736993467375</v>
+        <v>1.025627708484345</v>
       </c>
       <c r="J23">
-        <v>0.976574307741227</v>
+        <v>1.012558437999322</v>
       </c>
       <c r="K23">
-        <v>0.975119109360952</v>
+        <v>1.012555455054654</v>
       </c>
       <c r="L23">
-        <v>0.9757841893205864</v>
+        <v>1.012397637996348</v>
       </c>
       <c r="M23">
-        <v>0.9702643055602471</v>
+        <v>1.021105902306827</v>
       </c>
       <c r="N23">
-        <v>0.9957835747056019</v>
+        <v>1.008264748870206</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9520555198212373</v>
+        <v>1.007162410632428</v>
       </c>
       <c r="D24">
-        <v>0.9655770807031719</v>
+        <v>1.010132076500852</v>
       </c>
       <c r="E24">
-        <v>0.9661280946928594</v>
+        <v>1.009951582831367</v>
       </c>
       <c r="F24">
-        <v>0.9635922706546044</v>
+        <v>1.019197126252603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042576550165763</v>
+        <v>1.025616932506859</v>
       </c>
       <c r="J24">
-        <v>0.9815328032650157</v>
+        <v>1.013552414378807</v>
       </c>
       <c r="K24">
-        <v>0.9802369271442594</v>
+        <v>1.013594962136805</v>
       </c>
       <c r="L24">
-        <v>0.9807773479247293</v>
+        <v>1.01341513461417</v>
       </c>
       <c r="M24">
-        <v>0.9782904065302218</v>
+        <v>1.022626890835974</v>
       </c>
       <c r="N24">
-        <v>0.9975139831355672</v>
+        <v>1.008603781860695</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9611282144645563</v>
+        <v>1.008946417674851</v>
       </c>
       <c r="D25">
-        <v>0.9728929354276413</v>
+        <v>1.011671675065826</v>
       </c>
       <c r="E25">
-        <v>0.9733038208615575</v>
+        <v>1.011465735081954</v>
       </c>
       <c r="F25">
-        <v>0.9741323073343876</v>
+        <v>1.021286041431387</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04343041004001</v>
+        <v>1.02559324068728</v>
       </c>
       <c r="J25">
-        <v>0.9870385222384908</v>
+        <v>1.014705883189532</v>
       </c>
       <c r="K25">
-        <v>0.9859271530206974</v>
+        <v>1.014802014920101</v>
       </c>
       <c r="L25">
-        <v>0.9863311977214546</v>
+        <v>1.014596756585115</v>
       </c>
       <c r="M25">
-        <v>0.98714591351795</v>
+        <v>1.024384893637066</v>
       </c>
       <c r="N25">
-        <v>0.9994326159515006</v>
+        <v>1.008996487722042</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_113/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_113/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010371260139372</v>
+        <v>0.9680697257731969</v>
       </c>
       <c r="D2">
-        <v>1.012902601556871</v>
+        <v>0.9785179381989861</v>
       </c>
       <c r="E2">
-        <v>1.012676467692917</v>
+        <v>0.9788236548193573</v>
       </c>
       <c r="F2">
-        <v>1.022948532896612</v>
+        <v>0.9821609049261696</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025565289030852</v>
+        <v>1.044017498822297</v>
       </c>
       <c r="J2">
-        <v>1.015625892347066</v>
+        <v>0.9912492925500419</v>
       </c>
       <c r="K2">
-        <v>1.015765362915779</v>
+        <v>0.9902848931464145</v>
       </c>
       <c r="L2">
-        <v>1.015539909156081</v>
+        <v>0.9905861117009446</v>
       </c>
       <c r="M2">
-        <v>1.025781411076117</v>
+        <v>0.9938744912684736</v>
       </c>
       <c r="N2">
-        <v>1.009309119679293</v>
+        <v>1.000897409844737</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011406944684967</v>
+        <v>0.9729545596179028</v>
       </c>
       <c r="D3">
-        <v>1.013798066038265</v>
+        <v>0.982491019222813</v>
       </c>
       <c r="E3">
-        <v>1.013557327623777</v>
+        <v>0.9827238169002939</v>
       </c>
       <c r="F3">
-        <v>1.02415355767728</v>
+        <v>0.9877899037498162</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02553972418465</v>
+        <v>1.044390645603743</v>
       </c>
       <c r="J3">
-        <v>1.016293901614334</v>
+        <v>0.9942106838370707</v>
       </c>
       <c r="K3">
-        <v>1.01646518686554</v>
+        <v>0.9933529436287561</v>
       </c>
       <c r="L3">
-        <v>1.016225119791121</v>
+        <v>0.9935826287361306</v>
       </c>
       <c r="M3">
-        <v>1.02679212406856</v>
+        <v>0.9985814363363252</v>
       </c>
       <c r="N3">
-        <v>1.009535773716937</v>
+        <v>1.001925915736186</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012077623653653</v>
+        <v>0.9760482057768498</v>
       </c>
       <c r="D4">
-        <v>1.014378277196461</v>
+        <v>0.9850136427438053</v>
       </c>
       <c r="E4">
-        <v>1.01412811510856</v>
+        <v>0.9852007362932761</v>
       </c>
       <c r="F4">
-        <v>1.0249323242737</v>
+        <v>0.9913450891706236</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02552073760344</v>
+        <v>1.044607905411961</v>
       </c>
       <c r="J4">
-        <v>1.016726148005834</v>
+        <v>0.9960850998162034</v>
       </c>
       <c r="K4">
-        <v>1.016918179526824</v>
+        <v>0.9952963696002485</v>
       </c>
       <c r="L4">
-        <v>1.016668679712447</v>
+        <v>0.9954811191955172</v>
       </c>
       <c r="M4">
-        <v>1.027444604017036</v>
+        <v>1.001549106060504</v>
       </c>
       <c r="N4">
-        <v>1.009682273690448</v>
+        <v>1.002576080584327</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012359702064887</v>
+        <v>0.9773333465743054</v>
       </c>
       <c r="D5">
-        <v>1.014622385505205</v>
+        <v>0.9860630552244624</v>
       </c>
       <c r="E5">
-        <v>1.014368267983479</v>
+        <v>0.9862312732080648</v>
       </c>
       <c r="F5">
-        <v>1.025259486731346</v>
+        <v>0.9928195997181239</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025512169486292</v>
+        <v>1.044693503031872</v>
       </c>
       <c r="J5">
-        <v>1.016907864006635</v>
+        <v>0.9968634602460162</v>
       </c>
       <c r="K5">
-        <v>1.017108655500331</v>
+        <v>0.9961037433337395</v>
       </c>
       <c r="L5">
-        <v>1.016855195648634</v>
+        <v>0.9962699123512783</v>
       </c>
       <c r="M5">
-        <v>1.027718542588932</v>
+        <v>1.002778667817599</v>
       </c>
       <c r="N5">
-        <v>1.009743823679129</v>
+        <v>1.002845857459153</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012407071601336</v>
+        <v>0.9775482409423728</v>
       </c>
       <c r="D6">
-        <v>1.014663383344966</v>
+        <v>0.9862386179252166</v>
       </c>
       <c r="E6">
-        <v>1.014408602055124</v>
+        <v>0.9864036860267184</v>
       </c>
       <c r="F6">
-        <v>1.025314405200366</v>
+        <v>0.9930660201590534</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025510696460925</v>
+        <v>1.044707540206783</v>
       </c>
       <c r="J6">
-        <v>1.016938374891133</v>
+        <v>0.9969935950496573</v>
       </c>
       <c r="K6">
-        <v>1.017140639463113</v>
+        <v>0.9962387497701262</v>
       </c>
       <c r="L6">
-        <v>1.016886515024525</v>
+        <v>0.9964018168542607</v>
       </c>
       <c r="M6">
-        <v>1.027764516724678</v>
+        <v>1.00298407617499</v>
       </c>
       <c r="N6">
-        <v>1.009754155923315</v>
+        <v>1.002890949280904</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012081392308069</v>
+        <v>0.9760654376762798</v>
       </c>
       <c r="D7">
-        <v>1.014381538247465</v>
+        <v>0.9850277080797671</v>
       </c>
       <c r="E7">
-        <v>1.01413132328226</v>
+        <v>0.9852145481031743</v>
       </c>
       <c r="F7">
-        <v>1.024936696742331</v>
+        <v>0.9913648695975239</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02552062542028</v>
+        <v>1.044609071651643</v>
       </c>
       <c r="J7">
-        <v>1.016728576105841</v>
+        <v>0.9960955377341557</v>
       </c>
       <c r="K7">
-        <v>1.016920724527846</v>
+        <v>0.995307195185672</v>
       </c>
       <c r="L7">
-        <v>1.016671171777739</v>
+        <v>0.9954916953039417</v>
       </c>
       <c r="M7">
-        <v>1.02744826582848</v>
+        <v>1.00156560562083</v>
       </c>
       <c r="N7">
-        <v>1.009683096276352</v>
+        <v>1.002579699158381</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01072116656477</v>
+        <v>0.9697348903044919</v>
       </c>
       <c r="D8">
-        <v>1.013205064928666</v>
+        <v>0.9798709218086743</v>
       </c>
       <c r="E8">
-        <v>1.012973989880497</v>
+        <v>0.9801516790634877</v>
       </c>
       <c r="F8">
-        <v>1.023355976484694</v>
+        <v>0.9840817788243327</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025557154830652</v>
+        <v>1.04414864775224</v>
       </c>
       <c r="J8">
-        <v>1.015851649072877</v>
+        <v>0.992258989416741</v>
       </c>
       <c r="K8">
-        <v>1.016001838380274</v>
+        <v>0.9913306388679851</v>
       </c>
       <c r="L8">
-        <v>1.015771441190121</v>
+        <v>0.9916073943213498</v>
       </c>
       <c r="M8">
-        <v>1.026123300559184</v>
+        <v>0.9954817789525373</v>
       </c>
       <c r="N8">
-        <v>1.009385751544963</v>
+        <v>1.001248251468632</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008328268902935</v>
+        <v>0.9580339285833011</v>
       </c>
       <c r="D9">
-        <v>1.01113801167686</v>
+        <v>0.9703932685978226</v>
       </c>
       <c r="E9">
-        <v>1.010940868525497</v>
+        <v>0.9708516090568899</v>
       </c>
       <c r="F9">
-        <v>1.020563152713118</v>
+        <v>0.9705431754672398</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025602844781703</v>
+        <v>1.043149426904721</v>
       </c>
       <c r="J9">
-        <v>1.014306403174602</v>
+        <v>0.985160913178628</v>
       </c>
       <c r="K9">
-        <v>1.014383884164755</v>
+        <v>0.9839856813589452</v>
       </c>
       <c r="L9">
-        <v>1.014187419502133</v>
+        <v>0.9844359909662225</v>
       </c>
       <c r="M9">
-        <v>1.023776923686797</v>
+        <v>0.9841329605406435</v>
       </c>
       <c r="N9">
-        <v>1.008860573384166</v>
+        <v>0.9987786889024647</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006735682695536</v>
+        <v>0.9498192449644658</v>
       </c>
       <c r="D10">
-        <v>1.00976407107002</v>
+        <v>0.9637800359175392</v>
       </c>
       <c r="E10">
-        <v>1.009589690254689</v>
+        <v>0.9643660462369403</v>
       </c>
       <c r="F10">
-        <v>1.018696291817971</v>
+        <v>0.960986981619219</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025620801168555</v>
+        <v>1.042352895615167</v>
       </c>
       <c r="J10">
-        <v>1.013276263651415</v>
+        <v>0.9801756716016674</v>
       </c>
       <c r="K10">
-        <v>1.013306103196133</v>
+        <v>0.9788355668547893</v>
       </c>
       <c r="L10">
-        <v>1.013132381908735</v>
+        <v>0.9794099344806638</v>
       </c>
       <c r="M10">
-        <v>1.022204875520217</v>
+        <v>0.9760982609183558</v>
       </c>
       <c r="N10">
-        <v>1.008509647128149</v>
+        <v>0.9970405746029313</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006046708396777</v>
+        <v>0.9461523870459128</v>
       </c>
       <c r="D11">
-        <v>1.00917011698815</v>
+        <v>0.9608386470377782</v>
       </c>
       <c r="E11">
-        <v>1.009005626708028</v>
+        <v>0.9614824283198652</v>
       </c>
       <c r="F11">
-        <v>1.017886736216683</v>
+        <v>0.9567092161369092</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025625622239129</v>
+        <v>1.041976036430593</v>
       </c>
       <c r="J11">
-        <v>1.012830210575164</v>
+        <v>0.977950509583527</v>
       </c>
       <c r="K11">
-        <v>1.012839618851596</v>
+        <v>0.9765389089685815</v>
       </c>
       <c r="L11">
-        <v>1.012675775016912</v>
+        <v>0.9771692170462858</v>
       </c>
       <c r="M11">
-        <v>1.021522313630841</v>
+        <v>0.9724964706832803</v>
       </c>
       <c r="N11">
-        <v>1.008357502984775</v>
+        <v>0.9962640330546129</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005790886424283</v>
+        <v>0.9447727658283176</v>
       </c>
       <c r="D12">
-        <v>1.008949642345352</v>
+        <v>0.9597336616197311</v>
       </c>
       <c r="E12">
-        <v>1.008788831066341</v>
+        <v>0.9603993026287748</v>
       </c>
       <c r="F12">
-        <v>1.017585851580468</v>
+        <v>0.9550979344171636</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025626970047317</v>
+        <v>1.041831155291803</v>
       </c>
       <c r="J12">
-        <v>1.012664527388108</v>
+        <v>0.9771133905392085</v>
       </c>
       <c r="K12">
-        <v>1.012666376378642</v>
+        <v>0.9756752144735095</v>
       </c>
       <c r="L12">
-        <v>1.012506205930539</v>
+        <v>0.9763266578217248</v>
       </c>
       <c r="M12">
-        <v>1.021268501066274</v>
+        <v>0.9711390925233677</v>
       </c>
       <c r="N12">
-        <v>1.008300961378916</v>
+        <v>0.9959717948238548</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005845756867743</v>
+        <v>0.9450695135043478</v>
       </c>
       <c r="D13">
-        <v>1.008996928275204</v>
+        <v>0.9599712592860095</v>
       </c>
       <c r="E13">
-        <v>1.008835327600911</v>
+        <v>0.9606321927008503</v>
       </c>
       <c r="F13">
-        <v>1.01765040049325</v>
+        <v>0.9554445926360766</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025626700968447</v>
+        <v>1.041862456141586</v>
       </c>
       <c r="J13">
-        <v>1.01270006695595</v>
+        <v>0.9772934450435836</v>
       </c>
       <c r="K13">
-        <v>1.012703536089303</v>
+        <v>0.9758609703948893</v>
       </c>
       <c r="L13">
-        <v>1.012542577484794</v>
+        <v>0.9765078636388599</v>
       </c>
       <c r="M13">
-        <v>1.021322957335061</v>
+        <v>0.9714311560584769</v>
       </c>
       <c r="N13">
-        <v>1.008313091032246</v>
+        <v>0.9960346561141254</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006025560161781</v>
+        <v>0.9460387124810904</v>
       </c>
       <c r="D14">
-        <v>1.009151889497459</v>
+        <v>0.9607475664547216</v>
       </c>
       <c r="E14">
-        <v>1.008987703217944</v>
+        <v>0.9613931463227489</v>
       </c>
       <c r="F14">
-        <v>1.017861868666231</v>
+        <v>0.9565764906074624</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025625742680436</v>
+        <v>1.041964161043373</v>
       </c>
       <c r="J14">
-        <v>1.012816515134254</v>
+        <v>0.9778815328422702</v>
       </c>
       <c r="K14">
-        <v>1.012825297949441</v>
+        <v>0.9764677358904704</v>
       </c>
       <c r="L14">
-        <v>1.012661757666803</v>
+        <v>0.9770997836060674</v>
       </c>
       <c r="M14">
-        <v>1.021501339090553</v>
+        <v>0.9723846739947564</v>
       </c>
       <c r="N14">
-        <v>1.008352829818385</v>
+        <v>0.9962399552140747</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006136355320617</v>
+        <v>0.9466335035745101</v>
       </c>
       <c r="D15">
-        <v>1.009247385626276</v>
+        <v>0.9612242059287159</v>
       </c>
       <c r="E15">
-        <v>1.009081606963117</v>
+        <v>0.9618603799599296</v>
       </c>
       <c r="F15">
-        <v>1.017992137368239</v>
+        <v>0.9572708901959648</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025625093578135</v>
+        <v>1.042026172564849</v>
       </c>
       <c r="J15">
-        <v>1.012888262809247</v>
+        <v>0.978242450423763</v>
       </c>
       <c r="K15">
-        <v>1.012900323509974</v>
+        <v>0.9768401588527729</v>
       </c>
       <c r="L15">
-        <v>1.012735193162555</v>
+        <v>0.9774631076971967</v>
       </c>
       <c r="M15">
-        <v>1.021611209046949</v>
+        <v>0.9729695484363996</v>
       </c>
       <c r="N15">
-        <v>1.008377310424818</v>
+        <v>0.9963659374392313</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006781420815183</v>
+        <v>0.9500601974375862</v>
       </c>
       <c r="D16">
-        <v>1.00980351034626</v>
+        <v>0.9639735455829379</v>
       </c>
       <c r="E16">
-        <v>1.009628473856651</v>
+        <v>0.9645557765306363</v>
       </c>
       <c r="F16">
-        <v>1.018749994191611</v>
+        <v>0.9612678262276096</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025620419044362</v>
+        <v>1.042377225094937</v>
       </c>
       <c r="J16">
-        <v>1.013305866826242</v>
+        <v>0.980321896591141</v>
       </c>
       <c r="K16">
-        <v>1.013337066501099</v>
+        <v>0.9789865343266777</v>
       </c>
       <c r="L16">
-        <v>1.013162690303038</v>
+        <v>0.979557238077817</v>
       </c>
       <c r="M16">
-        <v>1.022250135825731</v>
+        <v>0.9763346246449911</v>
       </c>
       <c r="N16">
-        <v>1.008519740428696</v>
+        <v>0.9970915901782399</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007186220755677</v>
+        <v>0.9521795256387282</v>
       </c>
       <c r="D17">
-        <v>1.010152613028368</v>
+        <v>0.9656768016498595</v>
       </c>
       <c r="E17">
-        <v>1.009971778575196</v>
+        <v>0.9662258802755229</v>
       </c>
       <c r="F17">
-        <v>1.019225058152309</v>
+        <v>0.9637366579187103</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025616696543157</v>
+        <v>1.042588809266927</v>
       </c>
       <c r="J17">
-        <v>1.013567820016914</v>
+        <v>0.9816080598475151</v>
       </c>
       <c r="K17">
-        <v>1.013611078076223</v>
+        <v>0.9803146503901671</v>
       </c>
       <c r="L17">
-        <v>1.013430910105915</v>
+        <v>0.9808531925364048</v>
       </c>
       <c r="M17">
-        <v>1.022650421141879</v>
+        <v>0.9784118627984634</v>
       </c>
       <c r="N17">
-        <v>1.008609032050705</v>
+        <v>0.9975402299795808</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00742239413564</v>
+        <v>0.9534051732001325</v>
       </c>
       <c r="D18">
-        <v>1.01035633240114</v>
+        <v>0.9666628264286489</v>
       </c>
       <c r="E18">
-        <v>1.010172119398475</v>
+        <v>0.9671928060718932</v>
       </c>
       <c r="F18">
-        <v>1.019502039895548</v>
+        <v>0.965163284868134</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025614240179127</v>
+        <v>1.042709146535312</v>
       </c>
       <c r="J18">
-        <v>1.013720613269095</v>
+        <v>0.9823518820393068</v>
       </c>
       <c r="K18">
-        <v>1.013770923858688</v>
+        <v>0.9810829330264299</v>
       </c>
       <c r="L18">
-        <v>1.013587380481613</v>
+        <v>0.9816029286648974</v>
       </c>
       <c r="M18">
-        <v>1.022883721850529</v>
+        <v>0.9796117181783075</v>
       </c>
       <c r="N18">
-        <v>1.008661095926818</v>
+        <v>0.997799619858458</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00750293341286</v>
+        <v>0.9538213343149835</v>
       </c>
       <c r="D19">
-        <v>1.01042581132021</v>
+        <v>0.9669977920683175</v>
       </c>
       <c r="E19">
-        <v>1.010240446878046</v>
+        <v>0.9675212990734624</v>
       </c>
       <c r="F19">
-        <v>1.019596464015865</v>
+        <v>0.9656474928838766</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025613354239018</v>
+        <v>1.042749659483178</v>
       </c>
       <c r="J19">
-        <v>1.013772711880347</v>
+        <v>0.9826044423235359</v>
       </c>
       <c r="K19">
-        <v>1.013825430434121</v>
+        <v>0.9813438320992632</v>
       </c>
       <c r="L19">
-        <v>1.013640736610361</v>
+        <v>0.9818575393006791</v>
       </c>
       <c r="M19">
-        <v>1.022963241012383</v>
+        <v>0.9800188739417809</v>
       </c>
       <c r="N19">
-        <v>1.008678845234438</v>
+        <v>0.9978876818332746</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007142783305193</v>
+        <v>0.9519532375351949</v>
       </c>
       <c r="D20">
-        <v>1.010115147921038</v>
+        <v>0.9654948346715269</v>
       </c>
       <c r="E20">
-        <v>1.009934935192225</v>
+        <v>0.966047445401004</v>
       </c>
       <c r="F20">
-        <v>1.01917410018625</v>
+        <v>0.9634731708940862</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025617125414324</v>
+        <v>1.042566427152503</v>
       </c>
       <c r="J20">
-        <v>1.01353971487725</v>
+        <v>0.981470730294386</v>
       </c>
       <c r="K20">
-        <v>1.013581677212053</v>
+        <v>0.9801728207454772</v>
       </c>
       <c r="L20">
-        <v>1.013402130350465</v>
+        <v>0.9807147913584788</v>
       </c>
       <c r="M20">
-        <v>1.022607492824765</v>
+        <v>0.9781902189412257</v>
       </c>
       <c r="N20">
-        <v>1.008599453808395</v>
+        <v>0.9974923338709332</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005972609987333</v>
+        <v>0.9457538021829279</v>
       </c>
       <c r="D21">
-        <v>1.009106253236438</v>
+        <v>0.9605193124386959</v>
       </c>
       <c r="E21">
-        <v>1.008942828208719</v>
+        <v>0.9611694022437595</v>
       </c>
       <c r="F21">
-        <v>1.017799601522866</v>
+        <v>0.9562438024001367</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025626037093034</v>
+        <v>1.041934347548282</v>
       </c>
       <c r="J21">
-        <v>1.012782224025121</v>
+        <v>0.977708653185411</v>
       </c>
       <c r="K21">
-        <v>1.012789441270261</v>
+        <v>0.976289356656863</v>
       </c>
       <c r="L21">
-        <v>1.012626661104018</v>
+        <v>0.9769257659780021</v>
       </c>
       <c r="M21">
-        <v>1.021448817803202</v>
+        <v>0.9721044344953682</v>
       </c>
       <c r="N21">
-        <v>1.00834112852168</v>
+        <v>0.9961796062380641</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.005237417892617</v>
+        <v>0.9417536140192513</v>
       </c>
       <c r="D22">
-        <v>1.008472768046197</v>
+        <v>0.9573187243797733</v>
       </c>
       <c r="E22">
-        <v>1.00831992832184</v>
+        <v>0.9580324385781203</v>
       </c>
       <c r="F22">
-        <v>1.016934360067156</v>
+        <v>0.9515684842736827</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025629077859853</v>
+        <v>1.041508535551595</v>
       </c>
       <c r="J22">
-        <v>1.012305964090164</v>
+        <v>0.9752816532349997</v>
       </c>
       <c r="K22">
-        <v>1.012291508153685</v>
+        <v>0.9737859263167492</v>
       </c>
       <c r="L22">
-        <v>1.012139295703456</v>
+        <v>0.9744837882761497</v>
       </c>
       <c r="M22">
-        <v>1.020718700393434</v>
+        <v>0.9681645614756573</v>
       </c>
       <c r="N22">
-        <v>1.008178544367256</v>
+        <v>0.9953321669798095</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005627105825429</v>
+        <v>0.9438842778225786</v>
       </c>
       <c r="D23">
-        <v>1.008808510109015</v>
+        <v>0.9590225279465113</v>
       </c>
       <c r="E23">
-        <v>1.008650056030312</v>
+        <v>0.9597022825809401</v>
       </c>
       <c r="F23">
-        <v>1.017393139639279</v>
+        <v>0.954059744392482</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025627708484345</v>
+        <v>1.041736993467375</v>
       </c>
       <c r="J23">
-        <v>1.012558437999322</v>
+        <v>0.9765743077412267</v>
       </c>
       <c r="K23">
-        <v>1.012555455054654</v>
+        <v>0.9751191093609518</v>
       </c>
       <c r="L23">
-        <v>1.012397637996348</v>
+        <v>0.9757841893205859</v>
       </c>
       <c r="M23">
-        <v>1.021105902306827</v>
+        <v>0.9702643055602466</v>
       </c>
       <c r="N23">
-        <v>1.008264748870206</v>
+        <v>0.9957835747056017</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007162410632428</v>
+        <v>0.9520555198212372</v>
       </c>
       <c r="D24">
-        <v>1.010132076500852</v>
+        <v>0.9655770807031718</v>
       </c>
       <c r="E24">
-        <v>1.009951582831367</v>
+        <v>0.9661280946928597</v>
       </c>
       <c r="F24">
-        <v>1.019197126252603</v>
+        <v>0.9635922706546046</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025616932506859</v>
+        <v>1.042576550165763</v>
       </c>
       <c r="J24">
-        <v>1.013552414378807</v>
+        <v>0.9815328032650158</v>
       </c>
       <c r="K24">
-        <v>1.013594962136805</v>
+        <v>0.9802369271442594</v>
       </c>
       <c r="L24">
-        <v>1.01341513461417</v>
+        <v>0.9807773479247293</v>
       </c>
       <c r="M24">
-        <v>1.022626890835974</v>
+        <v>0.9782904065302221</v>
       </c>
       <c r="N24">
-        <v>1.008603781860695</v>
+        <v>0.9975139831355673</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008946417674851</v>
+        <v>0.9611282144645567</v>
       </c>
       <c r="D25">
-        <v>1.011671675065826</v>
+        <v>0.9728929354276417</v>
       </c>
       <c r="E25">
-        <v>1.011465735081954</v>
+        <v>0.9733038208615576</v>
       </c>
       <c r="F25">
-        <v>1.021286041431387</v>
+        <v>0.9741323073343884</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02559324068728</v>
+        <v>1.04343041004001</v>
       </c>
       <c r="J25">
-        <v>1.014705883189532</v>
+        <v>0.9870385222384911</v>
       </c>
       <c r="K25">
-        <v>1.014802014920101</v>
+        <v>0.9859271530206978</v>
       </c>
       <c r="L25">
-        <v>1.014596756585115</v>
+        <v>0.9863311977214547</v>
       </c>
       <c r="M25">
-        <v>1.024384893637066</v>
+        <v>0.9871459135179504</v>
       </c>
       <c r="N25">
-        <v>1.008996487722042</v>
+        <v>0.9994326159515008</v>
       </c>
     </row>
   </sheetData>
